--- a/aula03/metadado/sw_metadado_to_dw.xlsx
+++ b/aula03/metadado/sw_metadado_to_dw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f054485a52af266/Impacta/DataOps_DE03/aula03/metadado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{526AF329-A0A9-4ECD-A8B6-600BCF904E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8259C5-07D2-4BD3-99EF-29C5FACF30AD}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{526AF329-A0A9-4ECD-A8B6-600BCF904E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACAE5559-B567-4A87-8E68-674F3C6B4F10}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{3C659303-1BA8-4723-83B9-4625DFEAFD5F}"/>
+    <workbookView xWindow="5175" yWindow="4320" windowWidth="17280" windowHeight="11475" xr2:uid="{3C659303-1BA8-4723-83B9-4625DFEAFD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>tabela</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>flag de participacao no filme return_of_the_jedi</t>
+  </si>
+  <si>
+    <t>tabela_de_origem</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>planets</t>
   </si>
 </sst>
 </file>
@@ -244,10 +253,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,25 +552,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35C7792-E820-4A05-A3D2-18E6497AB46F}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C2:C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +605,11 @@
       <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -622,8 +631,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -645,8 +657,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -668,8 +683,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -691,8 +709,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -714,8 +735,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -737,8 +761,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -760,8 +787,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -783,8 +813,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -806,8 +839,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -830,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -853,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -876,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -899,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -922,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -945,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -968,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
